--- a/Backend/Excel/Twelve Month Enrollment.xlsx
+++ b/Backend/Excel/Twelve Month Enrollment.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bipularyal/Desktop/FISK_IPDES_Proj/Backend/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBB8417-DCC7-4D4F-AC0D-BF1F65D5A2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B63604A-5457-3A4B-9E33-4BBC418A5DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{EEB9D67A-3292-BA43-8182-FD9C08CD7949}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Year</t>
   </si>
@@ -53,120 +53,6 @@
     <t>Total Female UG</t>
   </si>
   <si>
-    <t> 207</t>
-  </si>
-  <si>
-    <t> 31</t>
-  </si>
-  <si>
-    <t> 396</t>
-  </si>
-  <si>
-    <t> 43</t>
-  </si>
-  <si>
-    <t> 208</t>
-  </si>
-  <si>
-    <t> 36</t>
-  </si>
-  <si>
-    <t> 351</t>
-  </si>
-  <si>
-    <t> 34</t>
-  </si>
-  <si>
-    <t> 183</t>
-  </si>
-  <si>
-    <t> 29</t>
-  </si>
-  <si>
-    <t> 321</t>
-  </si>
-  <si>
-    <t> 30</t>
-  </si>
-  <si>
-    <t> 219</t>
-  </si>
-  <si>
-    <t> 17</t>
-  </si>
-  <si>
-    <t> 426</t>
-  </si>
-  <si>
-    <t> 20</t>
-  </si>
-  <si>
-    <t> 280</t>
-  </si>
-  <si>
-    <t> 14</t>
-  </si>
-  <si>
-    <t> 467</t>
-  </si>
-  <si>
-    <t> 286</t>
-  </si>
-  <si>
-    <t> 533</t>
-  </si>
-  <si>
-    <t> 32</t>
-  </si>
-  <si>
-    <t> 251</t>
-  </si>
-  <si>
-    <t> 16</t>
-  </si>
-  <si>
-    <t> 487</t>
-  </si>
-  <si>
-    <t> 23</t>
-  </si>
-  <si>
-    <t> 12</t>
-  </si>
-  <si>
-    <t> 234</t>
-  </si>
-  <si>
-    <t> 11</t>
-  </si>
-  <si>
-    <t> 527</t>
-  </si>
-  <si>
-    <t> 28</t>
-  </si>
-  <si>
-    <t> 237</t>
-  </si>
-  <si>
-    <t> 27</t>
-  </si>
-  <si>
-    <t> 361</t>
-  </si>
-  <si>
-    <t> 18</t>
-  </si>
-  <si>
-    <t>Total 12month unduplicated headcount</t>
-  </si>
-  <si>
-    <t>ug unduplicated headcount</t>
-  </si>
-  <si>
-    <t>g unduplicated headcount</t>
-  </si>
-  <si>
     <t>Total 12month fte enrollment</t>
   </si>
   <si>
@@ -174,13 +60,31 @@
   </si>
   <si>
     <t>g FTE</t>
+  </si>
+  <si>
+    <t>malehc</t>
+  </si>
+  <si>
+    <t>femalehc</t>
+  </si>
+  <si>
+    <t>totalhc</t>
+  </si>
+  <si>
+    <t>gradhc</t>
+  </si>
+  <si>
+    <t>undergradhc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,6 +95,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,17 +124,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -536,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0794217D-1B9A-474B-9EC2-8F4A9D1D36BC}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,7 +466,7 @@
     <col min="10" max="10" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,477 +483,587 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="B2" s="3">
+        <v>207</v>
+      </c>
+      <c r="C2" s="3">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3">
+        <v>396</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3">
         <v>677</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>603</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>74</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>659</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>606</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="2">
+        <f>SUM(B2:C2)</f>
+        <v>238</v>
+      </c>
+      <c r="M2" s="1">
+        <f>SUM(D2:E2)</f>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2011</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="B3" s="3">
+        <v>208</v>
+      </c>
+      <c r="C3" s="3">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3">
+        <v>351</v>
+      </c>
+      <c r="E3" s="3">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3">
         <v>629</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>559</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>70</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>539</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>492</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L14" si="0">SUM(B3:C3)</f>
+        <v>244</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M14" si="1">SUM(D3:E3)</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2012</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="B4" s="3">
+        <v>183</v>
+      </c>
+      <c r="C4" s="3">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3">
+        <v>321</v>
+      </c>
+      <c r="E4" s="3">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3">
         <v>563</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>504</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>59</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>517</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>477</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="1"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2013</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="B5" s="3">
+        <v>237</v>
+      </c>
+      <c r="C5" s="3">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3">
+        <v>361</v>
+      </c>
+      <c r="E5" s="3">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3">
         <v>643</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>598</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>45</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>562</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>535</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3">
+        <v>219</v>
+      </c>
+      <c r="C6" s="3">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="3">
+        <v>426</v>
+      </c>
+      <c r="E6" s="3">
         <v>20</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>682</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>645</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>37</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>622</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>599</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2015</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="B7" s="3">
+        <v>280</v>
+      </c>
+      <c r="C7" s="3">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3">
+        <v>467</v>
+      </c>
+      <c r="E7" s="3">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3">
         <v>791</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>747</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>44</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>749</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>719</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="B8" s="3">
+        <v>286</v>
+      </c>
+      <c r="C8" s="3">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>533</v>
+      </c>
+      <c r="E8" s="3">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3">
         <v>868</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>819</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>49</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>846</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>810</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>303</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2017</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="3">
+        <v>251</v>
+      </c>
+      <c r="C9" s="3">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3">
+        <v>487</v>
+      </c>
+      <c r="E9" s="3">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3">
+        <v>777</v>
+      </c>
+      <c r="G9" s="3">
+        <v>738</v>
+      </c>
+      <c r="H9" s="3">
+        <v>39</v>
+      </c>
+      <c r="I9" s="3">
+        <v>751</v>
+      </c>
+      <c r="J9" s="3">
+        <v>722</v>
+      </c>
+      <c r="K9" s="3">
         <v>29</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2">
-        <v>777</v>
-      </c>
-      <c r="G9" s="2">
-        <v>738</v>
-      </c>
-      <c r="H9" s="2">
-        <v>39</v>
-      </c>
-      <c r="I9" s="2">
-        <v>751</v>
-      </c>
-      <c r="J9" s="2">
-        <v>722</v>
-      </c>
-      <c r="K9" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2018</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3">
+        <v>219</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
         <v>454</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>25</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>710</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>673</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>37</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>616</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <v>597</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2019</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="B11" s="3">
+        <v>234</v>
+      </c>
+      <c r="C11" s="3">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3">
+        <v>527</v>
+      </c>
+      <c r="E11" s="3">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3">
         <v>800</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>761</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>39</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>750</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>726</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2020</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>287</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>15</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>616</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>24</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>942</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>903</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>39</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <v>852</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <v>827</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2021</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>303</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>617</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>20</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>952</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>920</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <v>32</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <v>864</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="3">
         <v>845</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="2">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
+        <v>637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2022</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>324</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>11</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>640</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>19</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>994</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>964</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>30</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <v>925</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <v>901</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="3">
         <v>24</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
